--- a/resource/test.xlsx
+++ b/resource/test.xlsx
@@ -25,34 +25,34 @@
     <t>select * from ITR_SAP_POPriority  where OrderNo='34089' and ID='25'</t>
   </si>
   <si>
-    <t>GIB9B25F000010</t>
-  </si>
-  <si>
-    <t>GIB9B25F000009</t>
-  </si>
-  <si>
-    <t>GIB9B25F000008</t>
-  </si>
-  <si>
-    <t>GIB9B25F000007</t>
-  </si>
-  <si>
-    <t>GIB9B25F000006</t>
-  </si>
-  <si>
-    <t>GIB9B25T000003</t>
-  </si>
-  <si>
-    <t>GIB9B25F000005</t>
-  </si>
-  <si>
-    <t>GIB9B25F000004</t>
-  </si>
-  <si>
-    <t>GIB9B25F000003</t>
-  </si>
-  <si>
-    <t>GIB9B25T000002</t>
+    <t>GIB9B25T000025</t>
+  </si>
+  <si>
+    <t>GIB9B25F000044</t>
+  </si>
+  <si>
+    <t>GIB9B25F000043</t>
+  </si>
+  <si>
+    <t>GIB9B25F000042</t>
+  </si>
+  <si>
+    <t>GIB9B25F000041</t>
+  </si>
+  <si>
+    <t>GIB9B25T000024</t>
+  </si>
+  <si>
+    <t>GIB9B25F000040</t>
+  </si>
+  <si>
+    <t>GIB9B25F000039</t>
+  </si>
+  <si>
+    <t>GIB9B25T000023</t>
+  </si>
+  <si>
+    <t>GIB9B25F000038</t>
   </si>
 </sst>
 </file>

--- a/resource/test.xlsx
+++ b/resource/test.xlsx
@@ -25,34 +25,34 @@
     <t>select * from ITR_SAP_POPriority  where OrderNo='34089' and ID='25'</t>
   </si>
   <si>
-    <t>GIB9B25T000025</t>
-  </si>
-  <si>
-    <t>GIB9B25F000044</t>
-  </si>
-  <si>
-    <t>GIB9B25F000043</t>
-  </si>
-  <si>
-    <t>GIB9B25F000042</t>
-  </si>
-  <si>
-    <t>GIB9B25F000041</t>
-  </si>
-  <si>
-    <t>GIB9B25T000024</t>
-  </si>
-  <si>
-    <t>GIB9B25F000040</t>
-  </si>
-  <si>
-    <t>GIB9B25F000039</t>
-  </si>
-  <si>
-    <t>GIB9B25T000023</t>
-  </si>
-  <si>
-    <t>GIB9B25F000038</t>
+    <t>GIB9B25T000039</t>
+  </si>
+  <si>
+    <t>GIB9B25F000075</t>
+  </si>
+  <si>
+    <t>GIB9B25T000038</t>
+  </si>
+  <si>
+    <t>GIB9B25F000074</t>
+  </si>
+  <si>
+    <t>GIB9B25T000037</t>
+  </si>
+  <si>
+    <t>GIB9B25T000036</t>
+  </si>
+  <si>
+    <t>GIB9B25T000035</t>
+  </si>
+  <si>
+    <t>GIB9B25F000073</t>
+  </si>
+  <si>
+    <t>GIB9B25F000072</t>
+  </si>
+  <si>
+    <t>GIB9B25T000034</t>
   </si>
 </sst>
 </file>
